--- a/charts/p8/template/ppt/embeddings/Microsoft_Office_Excel_Binary_Worksheet1.xlsx
+++ b/charts/p8/template/ppt/embeddings/Microsoft_Office_Excel_Binary_Worksheet1.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="chart1-final" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,37 +422,84 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="n">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Label</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Series1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>8.4</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>2.3</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Hp</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>1.5</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Asus</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>2.2</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Acer</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>1.5</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>61.4</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Samsung</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>22.8</v>
       </c>
     </row>
